--- a/JupyterNotebooks/AveragedIntensites/CopperA-HW10.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/CopperA-HW10.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="CopperA-HW10.xpc" sheetId="1" r:id="rId1"/>
+    <sheet name="CopperA" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>HKL</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1069,7 +1069,7 @@
         <v>0.9770890042618984</v>
       </c>
       <c r="D13">
-        <v>0.9958155504106797</v>
+        <v>0.9958155504106795</v>
       </c>
       <c r="E13">
         <v>1.001773448469824</v>
@@ -1081,19 +1081,19 @@
         <v>0.9770890042618984</v>
       </c>
       <c r="H13">
-        <v>0.9958155504106797</v>
+        <v>0.9958155504106795</v>
       </c>
       <c r="I13">
         <v>0.9926289592092368</v>
       </c>
       <c r="J13">
-        <v>0.9984010437941699</v>
+        <v>0.9984010437941702</v>
       </c>
       <c r="K13">
         <v>0.990076030960036</v>
       </c>
       <c r="L13">
-        <v>0.9897808431246277</v>
+        <v>0.9897808431246279</v>
       </c>
       <c r="M13">
         <v>0.977044084176299</v>
@@ -1102,10 +1102,10 @@
         <v>0.9987944994402516</v>
       </c>
       <c r="O13">
-        <v>0.9899436219528296</v>
+        <v>0.9899436219528295</v>
       </c>
       <c r="P13">
-        <v>0.9913326706124235</v>
+        <v>0.9913326706124236</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1196,16 +1196,66 @@
         <v>1.076258636503809</v>
       </c>
       <c r="M15">
-        <v>0.9042591566025285</v>
+        <v>0.9042591566025288</v>
       </c>
       <c r="N15">
         <v>0.9604916878526055</v>
       </c>
       <c r="O15">
-        <v>0.967858310149708</v>
+        <v>0.9678583101497081</v>
       </c>
       <c r="P15">
         <v>0.986249990721346</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16">
+        <v>1.560627062854345</v>
+      </c>
+      <c r="D16">
+        <v>1.039049773750829</v>
+      </c>
+      <c r="E16">
+        <v>1.622924357132956</v>
+      </c>
+      <c r="F16">
+        <v>0.7297912232260775</v>
+      </c>
+      <c r="G16">
+        <v>1.560627062854345</v>
+      </c>
+      <c r="H16">
+        <v>1.039049773750829</v>
+      </c>
+      <c r="I16">
+        <v>1.015516809015217</v>
+      </c>
+      <c r="J16">
+        <v>1.111178102939896</v>
+      </c>
+      <c r="K16">
+        <v>0.8657733098031337</v>
+      </c>
+      <c r="L16">
+        <v>0.7045161732785121</v>
+      </c>
+      <c r="M16">
+        <v>1.560627062854345</v>
+      </c>
+      <c r="N16">
+        <v>1.330987065441892</v>
+      </c>
+      <c r="O16">
+        <v>1.238098104241052</v>
+      </c>
+      <c r="P16">
+        <v>1.081172101500121</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AveragedIntensites/CopperA-HW10.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/CopperA-HW10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>HKL</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
+  </si>
+  <si>
+    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 1]</t>
@@ -516,46 +519,46 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -1213,7 +1216,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C16">
         <v>1.560627062854345</v>

--- a/JupyterNotebooks/AveragedIntensites/CopperA-HW10.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/CopperA-HW10.xlsx
@@ -1072,7 +1072,7 @@
         <v>0.9770890042618984</v>
       </c>
       <c r="D13">
-        <v>0.9958155504106795</v>
+        <v>0.9958155504106797</v>
       </c>
       <c r="E13">
         <v>1.001773448469824</v>
@@ -1084,19 +1084,19 @@
         <v>0.9770890042618984</v>
       </c>
       <c r="H13">
-        <v>0.9958155504106795</v>
+        <v>0.9958155504106797</v>
       </c>
       <c r="I13">
         <v>0.9926289592092368</v>
       </c>
       <c r="J13">
-        <v>0.9984010437941702</v>
+        <v>0.9984010437941699</v>
       </c>
       <c r="K13">
         <v>0.990076030960036</v>
       </c>
       <c r="L13">
-        <v>0.9897808431246279</v>
+        <v>0.9897808431246277</v>
       </c>
       <c r="M13">
         <v>0.977044084176299</v>
@@ -1105,10 +1105,10 @@
         <v>0.9987944994402516</v>
       </c>
       <c r="O13">
-        <v>0.9899436219528295</v>
+        <v>0.9899436219528296</v>
       </c>
       <c r="P13">
-        <v>0.9913326706124236</v>
+        <v>0.9913326706124235</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1199,13 +1199,13 @@
         <v>1.076258636503809</v>
       </c>
       <c r="M15">
-        <v>0.9042591566025288</v>
+        <v>0.9042591566025285</v>
       </c>
       <c r="N15">
         <v>0.9604916878526055</v>
       </c>
       <c r="O15">
-        <v>0.9678583101497081</v>
+        <v>0.967858310149708</v>
       </c>
       <c r="P15">
         <v>0.986249990721346</v>

--- a/JupyterNotebooks/AveragedIntensites/CopperA-HW10.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/CopperA-HW10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>HKL</t>
   </si>
@@ -40,6 +40,18 @@
     <t>Ring Perpendicular to TD</t>
   </si>
   <si>
+    <t>Gaussian-Quadrature</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-15rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-3space</t>
+  </si>
+  <si>
     <t>NoRotation-tilt60deg</t>
   </si>
   <si>
@@ -56,9 +68,6 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
-  </si>
-  <si>
-    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 1]</t>
@@ -458,7 +467,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P16"/>
+  <dimension ref="A1:P19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,46 +528,46 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="N2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="O2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="P2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -919,46 +928,46 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.6152760000000006</v>
+        <v>1.560627062854345</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>1.039049773750829</v>
       </c>
       <c r="E10">
-        <v>1.291092000000003</v>
+        <v>1.622924357132956</v>
       </c>
       <c r="F10">
-        <v>1.216532000000001</v>
+        <v>0.7297912232260775</v>
       </c>
       <c r="G10">
-        <v>0.6152760000000006</v>
+        <v>1.560627062854345</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1.039049773750829</v>
       </c>
       <c r="I10">
-        <v>1.123308</v>
+        <v>1.015516809015217</v>
       </c>
       <c r="J10">
-        <v>0.374812</v>
+        <v>1.111178102939896</v>
       </c>
       <c r="K10">
-        <v>2.400911999999999</v>
+        <v>0.8657733098031337</v>
       </c>
       <c r="L10">
-        <v>0.2579080000000003</v>
+        <v>0.7045161732785121</v>
       </c>
       <c r="M10">
-        <v>0.6152760000000006</v>
+        <v>1.560627062854345</v>
       </c>
       <c r="N10">
-        <v>0.6455460000000014</v>
+        <v>1.330987065441892</v>
       </c>
       <c r="O10">
-        <v>0.780725000000001</v>
+        <v>1.238098104241052</v>
       </c>
       <c r="P10">
-        <v>0.9099800000000005</v>
+        <v>1.081172101500121</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -969,46 +978,46 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.88</v>
+        <v>0.3266449798664107</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.02</v>
+        <v>2.707299763610842</v>
       </c>
       <c r="F11">
-        <v>1.750999999999997</v>
+        <v>0.6322686641608687</v>
       </c>
       <c r="G11">
-        <v>0.88</v>
+        <v>0.3266449798664107</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.4598625</v>
+        <v>1.845512433833404</v>
       </c>
       <c r="J11">
-        <v>0.12</v>
+        <v>0.659302194500726</v>
       </c>
       <c r="K11">
-        <v>3.517224999999991</v>
+        <v>1.194430008683945</v>
       </c>
       <c r="L11">
-        <v>0.4002999999999995</v>
+        <v>0.1079776849009707</v>
       </c>
       <c r="M11">
-        <v>0.88</v>
+        <v>0.3266449798664107</v>
       </c>
       <c r="N11">
-        <v>0.01</v>
+        <v>1.353649881805421</v>
       </c>
       <c r="O11">
-        <v>0.6627499999999993</v>
+        <v>0.9165533519095305</v>
       </c>
       <c r="P11">
-        <v>0.8935484374999986</v>
+        <v>0.9341794661946459</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1019,46 +1028,46 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9692009281535994</v>
+        <v>0.326945119996509</v>
       </c>
       <c r="D12">
-        <v>0.3768308365312038</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>0.4238952747008025</v>
+        <v>2.697373161718997</v>
       </c>
       <c r="F12">
-        <v>1.421300689510394</v>
+        <v>0.6326850678874875</v>
       </c>
       <c r="G12">
-        <v>0.9692009281535994</v>
+        <v>0.326945119996509</v>
       </c>
       <c r="H12">
-        <v>0.3768308365312038</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0.6957360648192029</v>
+        <v>1.846151887686994</v>
       </c>
       <c r="J12">
-        <v>0.5095861814272005</v>
+        <v>0.659350189919743</v>
       </c>
       <c r="K12">
-        <v>2.387224659046406</v>
+        <v>1.194828812756972</v>
       </c>
       <c r="L12">
-        <v>0.6529274897408005</v>
+        <v>0.1077581603305528</v>
       </c>
       <c r="M12">
-        <v>0.9691247108095998</v>
+        <v>0.326945119996509</v>
       </c>
       <c r="N12">
-        <v>0.4003630556160032</v>
+        <v>1.348686580859498</v>
       </c>
       <c r="O12">
-        <v>0.7978069322239998</v>
+        <v>0.9142508374007483</v>
       </c>
       <c r="P12">
-        <v>0.9295877654912011</v>
+        <v>0.9331365500371569</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1069,46 +1078,46 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9770890042618984</v>
+        <v>0.3261271920021528</v>
       </c>
       <c r="D13">
-        <v>0.9958155504106797</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>1.001773448469824</v>
+        <v>2.708262603382333</v>
       </c>
       <c r="F13">
-        <v>0.9850964846689166</v>
+        <v>0.6311318209268607</v>
       </c>
       <c r="G13">
-        <v>0.9770890042618984</v>
+        <v>0.3261271920021528</v>
       </c>
       <c r="H13">
-        <v>0.9958155504106797</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0.9926289592092368</v>
+        <v>1.847009888419409</v>
       </c>
       <c r="J13">
-        <v>0.9984010437941699</v>
+        <v>0.6598362696975579</v>
       </c>
       <c r="K13">
-        <v>0.990076030960036</v>
+        <v>1.19182743123876</v>
       </c>
       <c r="L13">
-        <v>0.9897808431246277</v>
+        <v>0.1074267990116627</v>
       </c>
       <c r="M13">
-        <v>0.977044084176299</v>
+        <v>0.3261271920021528</v>
       </c>
       <c r="N13">
-        <v>0.9987944994402516</v>
+        <v>1.354131301691167</v>
       </c>
       <c r="O13">
-        <v>0.9899436219528296</v>
+        <v>0.9163804040778367</v>
       </c>
       <c r="P13">
-        <v>0.9913326706124235</v>
+        <v>0.9339527505848422</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1119,46 +1128,46 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.271676545846232</v>
+        <v>0.6152760000000006</v>
       </c>
       <c r="D14">
-        <v>1.128058125257921</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>0.9383261268166483</v>
+        <v>1.291092000000003</v>
       </c>
       <c r="F14">
-        <v>1.171945002309921</v>
+        <v>1.216532000000001</v>
       </c>
       <c r="G14">
-        <v>1.271676545846232</v>
+        <v>0.6152760000000006</v>
       </c>
       <c r="H14">
-        <v>1.128058125257921</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0.9126687736956245</v>
+        <v>1.123308</v>
       </c>
       <c r="J14">
-        <v>0.8557232636279815</v>
+        <v>0.374812</v>
       </c>
       <c r="K14">
-        <v>0.9909354238778219</v>
+        <v>2.400911999999999</v>
       </c>
       <c r="L14">
-        <v>1.09571072153018</v>
+        <v>0.2579080000000003</v>
       </c>
       <c r="M14">
-        <v>1.271709783152289</v>
+        <v>0.6152760000000006</v>
       </c>
       <c r="N14">
-        <v>1.033192126037285</v>
+        <v>0.6455460000000014</v>
       </c>
       <c r="O14">
-        <v>1.127501450057681</v>
+        <v>0.780725000000001</v>
       </c>
       <c r="P14">
-        <v>1.045630497870291</v>
+        <v>0.9099800000000005</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1169,46 +1178,46 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9043493467296733</v>
+        <v>0.88</v>
       </c>
       <c r="D15">
-        <v>0.9928018094940526</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>0.9281815662111584</v>
+        <v>0.02</v>
       </c>
       <c r="F15">
-        <v>1.046100518163948</v>
+        <v>1.750999999999997</v>
       </c>
       <c r="G15">
-        <v>0.9043493467296733</v>
+        <v>0.88</v>
       </c>
       <c r="H15">
-        <v>0.9928018094940526</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0.9137071422386869</v>
+        <v>0.4598625</v>
       </c>
       <c r="J15">
-        <v>1.051581539425303</v>
+        <v>0.12</v>
       </c>
       <c r="K15">
-        <v>0.9770193670041363</v>
+        <v>3.517224999999991</v>
       </c>
       <c r="L15">
-        <v>1.076258636503809</v>
+        <v>0.4002999999999995</v>
       </c>
       <c r="M15">
-        <v>0.9042591566025285</v>
+        <v>0.88</v>
       </c>
       <c r="N15">
-        <v>0.9604916878526055</v>
+        <v>0.01</v>
       </c>
       <c r="O15">
-        <v>0.967858310149708</v>
+        <v>0.6627499999999993</v>
       </c>
       <c r="P15">
-        <v>0.986249990721346</v>
+        <v>0.8935484374999986</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1219,46 +1228,196 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.560627062854345</v>
+        <v>0.9692009281535994</v>
       </c>
       <c r="D16">
-        <v>1.039049773750829</v>
+        <v>0.3768308365312038</v>
       </c>
       <c r="E16">
-        <v>1.622924357132956</v>
+        <v>0.4238952747008025</v>
       </c>
       <c r="F16">
-        <v>0.7297912232260775</v>
+        <v>1.421300689510394</v>
       </c>
       <c r="G16">
-        <v>1.560627062854345</v>
+        <v>0.9692009281535994</v>
       </c>
       <c r="H16">
-        <v>1.039049773750829</v>
+        <v>0.3768308365312038</v>
       </c>
       <c r="I16">
-        <v>1.015516809015217</v>
+        <v>0.6957360648192029</v>
       </c>
       <c r="J16">
-        <v>1.111178102939896</v>
+        <v>0.5095861814272005</v>
       </c>
       <c r="K16">
-        <v>0.8657733098031337</v>
+        <v>2.387224659046406</v>
       </c>
       <c r="L16">
-        <v>0.7045161732785121</v>
+        <v>0.6529274897408005</v>
       </c>
       <c r="M16">
-        <v>1.560627062854345</v>
+        <v>0.9691247108095998</v>
       </c>
       <c r="N16">
-        <v>1.330987065441892</v>
+        <v>0.4003630556160032</v>
       </c>
       <c r="O16">
-        <v>1.238098104241052</v>
+        <v>0.7978069322239998</v>
       </c>
       <c r="P16">
-        <v>1.081172101500121</v>
+        <v>0.9295877654912011</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>0.9770890042618984</v>
+      </c>
+      <c r="D17">
+        <v>0.9958155504106795</v>
+      </c>
+      <c r="E17">
+        <v>1.001773448469824</v>
+      </c>
+      <c r="F17">
+        <v>0.9850964846689166</v>
+      </c>
+      <c r="G17">
+        <v>0.9770890042618984</v>
+      </c>
+      <c r="H17">
+        <v>0.9958155504106795</v>
+      </c>
+      <c r="I17">
+        <v>0.9926289592092368</v>
+      </c>
+      <c r="J17">
+        <v>0.9984010437941702</v>
+      </c>
+      <c r="K17">
+        <v>0.990076030960036</v>
+      </c>
+      <c r="L17">
+        <v>0.9897808431246279</v>
+      </c>
+      <c r="M17">
+        <v>0.977044084176299</v>
+      </c>
+      <c r="N17">
+        <v>0.9987944994402516</v>
+      </c>
+      <c r="O17">
+        <v>0.9899436219528295</v>
+      </c>
+      <c r="P17">
+        <v>0.9913326706124236</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>1.271676545846232</v>
+      </c>
+      <c r="D18">
+        <v>1.128058125257921</v>
+      </c>
+      <c r="E18">
+        <v>0.9383261268166483</v>
+      </c>
+      <c r="F18">
+        <v>1.171945002309921</v>
+      </c>
+      <c r="G18">
+        <v>1.271676545846232</v>
+      </c>
+      <c r="H18">
+        <v>1.128058125257921</v>
+      </c>
+      <c r="I18">
+        <v>0.9126687736956245</v>
+      </c>
+      <c r="J18">
+        <v>0.8557232636279815</v>
+      </c>
+      <c r="K18">
+        <v>0.9909354238778219</v>
+      </c>
+      <c r="L18">
+        <v>1.09571072153018</v>
+      </c>
+      <c r="M18">
+        <v>1.271709783152289</v>
+      </c>
+      <c r="N18">
+        <v>1.033192126037285</v>
+      </c>
+      <c r="O18">
+        <v>1.127501450057681</v>
+      </c>
+      <c r="P18">
+        <v>1.045630497870291</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>0.9043493467296733</v>
+      </c>
+      <c r="D19">
+        <v>0.9928018094940526</v>
+      </c>
+      <c r="E19">
+        <v>0.9281815662111584</v>
+      </c>
+      <c r="F19">
+        <v>1.046100518163948</v>
+      </c>
+      <c r="G19">
+        <v>0.9043493467296733</v>
+      </c>
+      <c r="H19">
+        <v>0.9928018094940526</v>
+      </c>
+      <c r="I19">
+        <v>0.9137071422386869</v>
+      </c>
+      <c r="J19">
+        <v>1.051581539425303</v>
+      </c>
+      <c r="K19">
+        <v>0.9770193670041363</v>
+      </c>
+      <c r="L19">
+        <v>1.076258636503809</v>
+      </c>
+      <c r="M19">
+        <v>0.9042591566025288</v>
+      </c>
+      <c r="N19">
+        <v>0.9604916878526055</v>
+      </c>
+      <c r="O19">
+        <v>0.9678583101497081</v>
+      </c>
+      <c r="P19">
+        <v>0.986249990721346</v>
       </c>
     </row>
   </sheetData>
